--- a/extracted_excel/Laikipia_gendered_enterprise.xlsx
+++ b/extracted_excel/Laikipia_gendered_enterprise.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="50">
-  <si>
-    <t>County</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>Theme</t>
   </si>
@@ -28,9 +25,6 @@
     <t>Response</t>
   </si>
   <si>
-    <t>Laikipia</t>
-  </si>
-  <si>
     <t>Enterprise Selection and Community Involvement</t>
   </si>
   <si>
@@ -142,25 +136,46 @@
     <t>What kinds of support (financial, technical, policy) would make it easier for women and marginalized groups to thrive?</t>
   </si>
   <si>
-    <t>No response provided</t>
+    <t>The selection process involved participatory planning, where stakeholders including local leaders, extension officers, and community members analyzed community value chain datasets and referred to local development plans. The criteria used included market demand, climate suitability, gender inclusivity, and feasibility based on available resources.</t>
+  </si>
+  <si>
+    <t>Community engagement was achieved through Focus Group Discussions (FGDs) in each ward. These discussions included representatives from women, youth, and elders to ensure diverse input and collective decision-making.</t>
+  </si>
+  <si>
+    <t>Women prefer enterprises like poultry farming and kitchen gardens, which require minimal land and capital. Men lean towards high-value crops and livestock such as dairy farming. Youth are increasingly drawn to support roles such as transport, while elders maintain traditional crops like tea and pyrethrum.</t>
   </si>
   <si>
     <t>Women: Poultry farming, kitchen gardens Men: Dairy cattle, horticulture (vegetables/fruits) Youth: Transportation and logistics within agricultural value chains Elderly: Traditional cash crops like tea and pyrethrum</t>
   </si>
   <si>
-    <t>Women and youth are mostly involved in production tasks such as planting and feeding animals. Men and youth take charge of marketing and transportation, which are more mobile and capital-intensive activities. What barriers prevent women from expanding their roles in these enterprises? Key barriers include lack of access to land, limited capital, insufficient time due to unpaid care work, and minimal control over household and enterprise resources.</t>
+    <t>Traditional enterprises include poultry and kitchen gardens, while non-traditional ones involve dairy goat rearing and sunflower processing, which are gaining traction among women seeking diversification.</t>
+  </si>
+  <si>
+    <t>Cultural norms often restrict women from leadership roles. Time constraints due to domestic duties and exclusion from formal meetings also hinder their active participation and decision-making.</t>
+  </si>
+  <si>
+    <t>Women and youth are mostly involved in production tasks such as planting and feeding animals. Men and youth take charge of marketing and transportation, which are more mobile and capital-intensive activities. Key barriers include lack of access to land, limited capital, insufficient time due to unpaid care work, and minimal control over household and enterprise resources.</t>
+  </si>
+  <si>
+    <t>Women have decision-making power in milk selling, manure application, and other small-scale production tasks. These tasks are within their immediate reach, both physically and in terms of responsibility, allowing them greater control.</t>
+  </si>
+  <si>
+    <t>With increasing climate variability, farmers are prioritizing short-duration crops like beans and maize, which are more resilient and have quicker returns. This shift is a direct adaptation to unpredictable rainfall and longer dry seasons.</t>
   </si>
   <si>
     <t>Enterprises like fast-maturing maize and bean varieties have emerged. However, men tend to dominate these due to better access to land and inputs, with women and youth underrepresented due to structural inequalities.</t>
   </si>
   <si>
-    <t>What is the competition landscape and opportunity for women? While competition exists, women can carve a niche in value addition for dairy, poultry, and potato products, thereby increasing profitability.</t>
+    <t>Market demand remains high for products like tea, dairy, maize, and poultry. However, products like potatoes and wheat face volatile markets, making them riskier investments. What is the competition landscape and opportunity for women? While competition exists, women can carve a niche in value addition for dairy, poultry, and potato products, thereby increasing profitability.</t>
+  </si>
+  <si>
+    <t>Women earn moderate income from dairy, poultry, maize, and potato ventures, which supports household needs and reinvestment in enterprises.</t>
   </si>
   <si>
     <t>What socio-economic benefits do these enterprises bring? These enterprises enhance household income, improve nutrition, support children’s education, and promote rural development by fostering local economies.</t>
   </si>
   <si>
-    <t>Can these enterprises be replicated elsewhere? Yes, especially in areas with similar ecological, cultural, and economic conditions. Success requires community buy-in and supportive infrastructure. How can value chains and market access be improved? Improvements can be made through better road networks, increased access to quality inputs, cold storage facilities, and market information systems.</t>
+    <t>Success is driven by climate suitability, access to inputs, market availability, availability of labor, and local capacity through extension services and training. Can these enterprises be replicated elsewhere? Yes, especially in areas with similar ecological, cultural, and economic conditions. Success requires community buy-in and supportive infrastructure. Improvements can be made through better road networks, increased access to quality inputs, cold storage facilities, and market information systems.</t>
   </si>
   <si>
     <t>What policy frameworks support women-led value chains? Relevant policies include the Crop Regulation of 2019, the County Gender Policy, and public procurement rules that prioritize women and youth-led enterprises. What cooperatives enhance women’s voices? Potato and dairy cooperatives/unions are active in Laikipia and provide women with collective bargaining power, extension services, and access to markets. Are there any policy gaps to address for women? Gaps remain in access to credit and technical support for smallholder women farmers, particularly those in informal or subsistence enterprises. What policy interventions and investments can strengthen women enterprises? Key interventions include funding VSLAs, investing in value addition infrastructure, and supporting digital literacy and access for women. What policies hinder or enable women’s climate-resilient enterprises? While some policies provide funds for climate-smart agriculture, limited technical capacity and low funding levels hinder effective implementation for women. What support is needed for women and marginalized groups to thrive? Comprehensive support including financial access, digital tools, training, and favorable policy environments is essential. Programs like NAVCDP and targeted enterprise funds can drive inclusive development.</t>
@@ -521,13 +536,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,414 +552,282 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="D26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="D27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
         <v>39</v>
-      </c>
-      <c r="D28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
